--- a/medicine/Médecine vétérinaire/Péritonite_infectieuse_féline/Péritonite_infectieuse_féline.xlsx
+++ b/medicine/Médecine vétérinaire/Péritonite_infectieuse_féline/Péritonite_infectieuse_féline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+          <t>Péritonite_infectieuse_féline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La péritonite infectieuse féline (PIF) est une maladie infectieuse des félidés due à un coronavirus félin (FCoV), dont le pronostic est presque toujours fatal.
 La PIF est une réinfection aggravée du FCoV. Le FCoV a normalement un tropisme pour les cellules intestinales et provoque une FECV (Feline Enteric CoronaVirus), une maladie relativement bénigne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+          <t>Péritonite_infectieuse_féline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,12 @@
           <t>Transmission et infection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence du FCoV est très importante, en particulier lorsque de nombreux chats cohabitent. La contamination se fait par ingestion (transmission féco-orale) ou inhalation. Les fèces constituent la source la plus fréquente ; des surfaces contaminées telles que la vaisselle et les tissus peuvent également être incriminés.
-La plupart des chats infectés par le FCoV ne développent aucun signe clinique, si ce n’est une diarrhée légère. Pour contracter une PIF, il faut que le chat soit réinfecté par le FCoV ou qu'il ait été vacciné contre le FCoV avec un virus inactivé ou un vaccin ciblant la seule protéine S. Si le taux d'anticorps est très élevé, les anticorps sont neutralisants. Lorsque le taux d'anticorps baisse, la balance entre anticorps neutralisants et facilitants s'inverse, et le chat risque une réinfection aggravée[1].
-Anticorps neutralisants
-En temps normal, les anticorps contre la protéine S ou spike du virus neutralisent le FCoV. Une fois opsonisés (c'est-à-dire « enrobés ») par des anticorps, les résidus de virus sont gobés par des globules blancs (les macrophages) via les récepteurs Fc. Un récepteur Fc est une protéine transmembranaire présente à la surface des globules blancs. 
-Anticorps facilitants
-Les anticorps ciblant la séquence d’acides aminés IVGAITAVN du FCoV, située aux codons 767-776 de la protéine S, ne sont pas neutralisants mais facilitants. Une fois opsonisés par des anticorps facilitants, les FCoV non neutralisés sont absorbés par les globules blancs. Le problème est que le FCoV est un coronavirus capable de se reproduire dans les macrophages. En présence d’anticorps facilitants, le FCoV perd son tropisme intestinal et développe un tropisme pour les macrophages où il se réplique activement. Ce qui dégénère en péritonite infectieuse féline (PIF)[2],[3],[4],[5].
-À noter que le chat peut contracter une PIF après avoir contracté le coronavirus canin (CCoV)[1]. Les anticorps facilitants du CCoV correspondent à la séquence IVGAMTSIN située aux codons 753-762 de la protéine S. La séquence IVGAMTSIN du CCoV reconnaît la séquence IVGAITAVN du FCoV, et génère donc des anticorps facilitants chez le chat.
-Le risque de contracter une PIF est accru chez les chats très jeunes ou très vieux, ou encore chez les sujets immunodéprimés (atteints de leucose par exemple). Aussi, un facteur stressant, tel qu'une opération chirurgicale, peut contribuer au développement de la maladie.
+La plupart des chats infectés par le FCoV ne développent aucun signe clinique, si ce n’est une diarrhée légère. Pour contracter une PIF, il faut que le chat soit réinfecté par le FCoV ou qu'il ait été vacciné contre le FCoV avec un virus inactivé ou un vaccin ciblant la seule protéine S. Si le taux d'anticorps est très élevé, les anticorps sont neutralisants. Lorsque le taux d'anticorps baisse, la balance entre anticorps neutralisants et facilitants s'inverse, et le chat risque une réinfection aggravée.
 </t>
         </is>
       </c>
@@ -533,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+          <t>Péritonite_infectieuse_féline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,18 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Signes cliniques</t>
+          <t>Transmission et infection</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La maladie peut prendre deux formes différentes : sèche ou humide. Cette dernière, représentant 60 à 70 % des cas, connait une évolution plus rapide.
-Forme sèche
-La PIF sèche se manifeste par un manque d’appétit accompagné de fièvre et d’un ictère. Le chat présente généralement des signes oculaires ou neurologiques. Il peut par exemple montrer des difficultés à marcher et se tenir debout, ou encore devenir aveugle.
-Les symptômes neurologiques se présentent dans la forme sèche ou humide[réf. nécessaire] lorsque le virus traverse la barrière hémato-encéphalique. À partir de ce moment, la maladie évolue rapidement. Le félin perd petit à petit sa motricité, provoquant au départ une asthénie, puis, une paralysie. En ce cas, le tractus intestinal pourrait être ralenti au début, puis absent. Si la paralysie apparaît, on observe d'abord une constipation puis rapidement, l'incapacité à déféquer. Idem pour le système urinaire, on peut observer une rétention d'urine et un globe vésical au niveau de la vessie. Dans les deux cas, le chat cesse d'aller dans sa litière car il ne ressent plus l'envie d’uriner.
-En résumé, les symptômes intestinaux et urinaires peuvent être confondus avec d'autres maladies félines mais lorsqu'ils sont accompagnés de plusieurs signes cliniques neurologiques, ils peuvent contribuer à poser le diagnostic.
-Forme humide
-La PIF humide est caractérisée par l’accumulation de liquide dans les cavités : abdomen (ascite) ou thorax (épanchement pleural). L'accumulation de liquide peut causer des difficultés respiratoires (dyspnée). Comme pour la forme sèche, le sujet perd l’appétit et développe fièvre et ictère. L'amaigrissement est fréquent.
+          <t>Anticorps neutralisants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En temps normal, les anticorps contre la protéine S ou spike du virus neutralisent le FCoV. Une fois opsonisés (c'est-à-dire « enrobés ») par des anticorps, les résidus de virus sont gobés par des globules blancs (les macrophages) via les récepteurs Fc. Un récepteur Fc est une protéine transmembranaire présente à la surface des globules blancs. 
 </t>
         </is>
       </c>
@@ -570,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+          <t>Péritonite_infectieuse_féline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,12 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Transmission et infection</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les symptômes de la PIF ne sont pas circonscrits à cette maladie, ce qui peut rendre le diagnostic compliqué. Pour la forme sèche, une hyperglobunémie polyclonale associée à une anémie non régénérative peuvent orienter le diagnostic. Une sérologie coronavirus positive n'est pas indicative de la maladie[6]. La forme humide se manifeste par la présence d'un épanchement pleural ou abdominal caractéristique : exsudat aseptique de couleur jaune citrin présentant un taux protéique supérieur à 25 g/L et une densité supérieure à 1,025. Le diagnostic peut être confirmé post-mortem par une analyse histologique des tissus biologiques.
+          <t>Anticorps facilitants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticorps ciblant la séquence d’acides aminés IVGAITAVN du FCoV, située aux codons 767-776 de la protéine S, ne sont pas neutralisants mais facilitants. Une fois opsonisés par des anticorps facilitants, les FCoV non neutralisés sont absorbés par les globules blancs. Le problème est que le FCoV est un coronavirus capable de se reproduire dans les macrophages. En présence d’anticorps facilitants, le FCoV perd son tropisme intestinal et développe un tropisme pour les macrophages où il se réplique activement. Ce qui dégénère en péritonite infectieuse féline (PIF).
+À noter que le chat peut contracter une PIF après avoir contracté le coronavirus canin (CCoV). Les anticorps facilitants du CCoV correspondent à la séquence IVGAMTSIN située aux codons 753-762 de la protéine S. La séquence IVGAMTSIN du CCoV reconnaît la séquence IVGAITAVN du FCoV, et génère donc des anticorps facilitants chez le chat.
+Le risque de contracter une PIF est accru chez les chats très jeunes ou très vieux, ou encore chez les sujets immunodéprimés (atteints de leucose par exemple). Aussi, un facteur stressant, tel qu'une opération chirurgicale, peut contribuer au développement de la maladie.
 </t>
         </is>
       </c>
@@ -601,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+          <t>Péritonite_infectieuse_féline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,15 +632,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie peut prendre deux formes différentes : sèche ou humide. Cette dernière, représentant 60 à 70 % des cas, connait une évolution plus rapide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Péritonite_infectieuse_féline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Forme sèche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La PIF sèche se manifeste par un manque d’appétit accompagné de fièvre et d’un ictère. Le chat présente généralement des signes oculaires ou neurologiques. Il peut par exemple montrer des difficultés à marcher et se tenir debout, ou encore devenir aveugle.
+Les symptômes neurologiques se présentent dans la forme sèche ou humide[réf. nécessaire] lorsque le virus traverse la barrière hémato-encéphalique. À partir de ce moment, la maladie évolue rapidement. Le félin perd petit à petit sa motricité, provoquant au départ une asthénie, puis, une paralysie. En ce cas, le tractus intestinal pourrait être ralenti au début, puis absent. Si la paralysie apparaît, on observe d'abord une constipation puis rapidement, l'incapacité à déféquer. Idem pour le système urinaire, on peut observer une rétention d'urine et un globe vésical au niveau de la vessie. Dans les deux cas, le chat cesse d'aller dans sa litière car il ne ressent plus l'envie d’uriner.
+En résumé, les symptômes intestinaux et urinaires peuvent être confondus avec d'autres maladies félines mais lorsqu'ils sont accompagnés de plusieurs signes cliniques neurologiques, ils peuvent contribuer à poser le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Péritonite_infectieuse_féline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Forme humide</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La PIF humide est caractérisée par l’accumulation de liquide dans les cavités : abdomen (ascite) ou thorax (épanchement pleural). L'accumulation de liquide peut causer des difficultés respiratoires (dyspnée). Comme pour la forme sèche, le sujet perd l’appétit et développe fièvre et ictère. L'amaigrissement est fréquent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Péritonite_infectieuse_féline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes de la PIF ne sont pas circonscrits à cette maladie, ce qui peut rendre le diagnostic compliqué. Pour la forme sèche, une hyperglobunémie polyclonale associée à une anémie non régénérative peuvent orienter le diagnostic. Une sérologie coronavirus positive n'est pas indicative de la maladie. La forme humide se manifeste par la présence d'un épanchement pleural ou abdominal caractéristique : exsudat aseptique de couleur jaune citrin présentant un taux protéique supérieur à 25 g/L et une densité supérieure à 1,025. Le diagnostic peut être confirmé post-mortem par une analyse histologique des tissus biologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Péritonite_infectieuse_féline</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9ritonite_infectieuse_f%C3%A9line</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe aucun traitement officiellement autorisé spécifique de la PIF, les soins sont essentiellement symptomatiques (traitement des la fièvre et des difficultés respiratoires), du moins aussi longtemps qu’une certaine qualité de vie peut être assurée. Le vétérinaire peut prescrire de la prednisolone ou d’autres médicaments immunosuppresseurs, sauf en cas d’infections concomitantes. La forme humide est généralement d’évolution très rapide par rapport aux formes dites « sèches » (sans effusions abdominales ou pleurales).
 Quelques cas de rémissions par interféron oméga félin (en) ont été rapportés. 
-L’isolement n’est pas nécessaire car la forme mutée du coronavirus ne se trouve que dans les macrophages[7] et n’est pas excretée.
-Le GS-441524, prodrogue du Remdesivir — les deux brevetés par le laboratoire Gilead Sciences, le deuxième en particulier pour le traitement des formes graves de la Covid-19 — s'est révélé efficace lors d'un essai clinique[8],[9] où il a permis de guérir la grande majorité des chats malades. Ce traitement n'est toutefois pas autorisé sur le marché du fait que le détenteur du brevet (Gilead) n'a pas l'intention de céder les droits d'exploitation de la molécule pour développer un médicament vétérinaire.
+L’isolement n’est pas nécessaire car la forme mutée du coronavirus ne se trouve que dans les macrophages et n’est pas excretée.
+Le GS-441524, prodrogue du Remdesivir — les deux brevetés par le laboratoire Gilead Sciences, le deuxième en particulier pour le traitement des formes graves de la Covid-19 — s'est révélé efficace lors d'un essai clinique, où il a permis de guérir la grande majorité des chats malades. Ce traitement n'est toutefois pas autorisé sur le marché du fait que le détenteur du brevet (Gilead) n'a pas l'intention de céder les droits d'exploitation de la molécule pour développer un médicament vétérinaire.
 </t>
         </is>
       </c>
